--- a/Documentation/ProjectDatabaseSchema utkarsh.xlsx
+++ b/Documentation/ProjectDatabaseSchema utkarsh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDAC\CDAC Project\Cdac-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2DE69B-CB0B-4DBD-95A2-713275B15E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DE2B64-1025-4493-BFB7-9C97F54A516D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BF33976-700D-4C25-9B98-68ED924E98C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="48">
   <si>
     <t>1. Role</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>empno</t>
+  </si>
+  <si>
+    <t>yash</t>
   </si>
 </sst>
 </file>
@@ -285,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -301,10 +304,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -313,26 +331,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D7EF82-BDA5-426B-BA27-27E3C64BA0E2}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,7 +660,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13"/>
@@ -674,127 +675,127 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="9"/>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9"/>
+      <c r="B7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14"/>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
@@ -802,17 +803,17 @@
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
@@ -820,17 +821,17 @@
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
@@ -838,17 +839,17 @@
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
@@ -856,17 +857,17 @@
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
@@ -874,35 +875,35 @@
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
     </row>
@@ -910,218 +911,219 @@
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="9"/>
+      <c r="B23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="14"/>
       <c r="D23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10" t="s">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="L28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="9"/>
+      <c r="B29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="14"/>
       <c r="D29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10" t="s">
+      <c r="F29" s="15"/>
+      <c r="G29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="16"/>
+      <c r="G30" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="12"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F31" s="9"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="12"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="12"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1132,796 +1134,955 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="9"/>
+      <c r="B38" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="14"/>
       <c r="D38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="10"/>
+      <c r="H38" s="15"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7" t="s">
+      <c r="F39" s="16"/>
+      <c r="G39" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="9"/>
+      <c r="B44" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="14"/>
       <c r="D44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10" t="s">
+      <c r="F44" s="15"/>
+      <c r="G44" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="10"/>
+      <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>1</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7" t="s">
+      <c r="F45" s="16"/>
+      <c r="G45" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="7"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="9"/>
+      <c r="B50" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="14"/>
       <c r="D50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10" t="s">
+      <c r="F50" s="15"/>
+      <c r="G50" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="10"/>
+      <c r="H50" s="15"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>1</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="7"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7" t="s">
+      <c r="F51" s="16"/>
+      <c r="G51" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="7"/>
+      <c r="H51" s="16"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="7"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
     </row>
     <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="9"/>
+      <c r="B56" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="14"/>
       <c r="D56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10" t="s">
+      <c r="F56" s="15"/>
+      <c r="G56" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="10"/>
+      <c r="H56" s="15"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>1</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="7"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7" t="s">
+      <c r="F57" s="16"/>
+      <c r="G57" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H57" s="7"/>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="7"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
     </row>
     <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="9"/>
+      <c r="B62" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="14"/>
       <c r="D62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10" t="s">
+      <c r="F62" s="15"/>
+      <c r="G62" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="10"/>
+      <c r="H62" s="15"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>1</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="7"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7" t="s">
+      <c r="F63" s="16"/>
+      <c r="G63" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H63" s="7"/>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="7"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
     </row>
     <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
     </row>
     <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68" s="9"/>
+      <c r="B68" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="14"/>
       <c r="D68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10" t="s">
+      <c r="F68" s="15"/>
+      <c r="G68" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H68" s="10"/>
+      <c r="H68" s="15"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>1</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="7"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7" t="s">
+      <c r="F69" s="16"/>
+      <c r="G69" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="7"/>
+      <c r="H69" s="16"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>2</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="7"/>
+      <c r="C70" s="16"/>
       <c r="D70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
     </row>
     <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
     </row>
     <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" s="9"/>
+      <c r="B74" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="14"/>
       <c r="D74" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10" t="s">
+      <c r="F74" s="15"/>
+      <c r="G74" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H74" s="10"/>
+      <c r="H74" s="15"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>1</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="7"/>
+      <c r="C75" s="16"/>
       <c r="D75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7" t="s">
+      <c r="F75" s="16"/>
+      <c r="G75" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H75" s="7"/>
+      <c r="H75" s="16"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="12"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="12"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="9"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>2</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="7"/>
+      <c r="C77" s="16"/>
       <c r="D77" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
     </row>
     <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
     </row>
     <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C81" s="9"/>
+      <c r="B81" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="14"/>
       <c r="D81" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10" t="s">
+      <c r="F81" s="15"/>
+      <c r="G81" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H81" s="10"/>
+      <c r="H81" s="15"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>1</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="7"/>
+      <c r="C82" s="16"/>
       <c r="D82" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7" t="s">
+      <c r="F82" s="16"/>
+      <c r="G82" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H82" s="7"/>
+      <c r="H82" s="16"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>2</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C83" s="7"/>
+      <c r="C83" s="16"/>
       <c r="D83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
     </row>
     <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
     </row>
     <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C87" s="9"/>
+      <c r="B87" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="14"/>
       <c r="D87" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E87" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10" t="s">
+      <c r="F87" s="15"/>
+      <c r="G87" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H87" s="10"/>
+      <c r="H87" s="15"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>1</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="7"/>
+      <c r="C88" s="16"/>
       <c r="D88" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7" t="s">
+      <c r="F88" s="16"/>
+      <c r="G88" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H88" s="7"/>
+      <c r="H88" s="16"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>2</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C89" s="7"/>
+      <c r="C89" s="16"/>
       <c r="D89" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
     </row>
     <row r="92" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
     </row>
     <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" s="9"/>
+      <c r="B93" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="14"/>
       <c r="D93" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E93" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10" t="s">
+      <c r="F93" s="15"/>
+      <c r="G93" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H93" s="10"/>
+      <c r="H93" s="15"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>1</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="7"/>
+      <c r="C94" s="16"/>
       <c r="D94" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7" t="s">
+      <c r="F94" s="16"/>
+      <c r="G94" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H94" s="7"/>
+      <c r="H94" s="16"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>2</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="7"/>
+      <c r="C95" s="16"/>
       <c r="D95" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
     </row>
     <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
     </row>
     <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C99" s="9"/>
+      <c r="B99" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="14"/>
       <c r="D99" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="10" t="s">
+      <c r="E99" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10" t="s">
+      <c r="F99" s="15"/>
+      <c r="G99" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H99" s="10"/>
+      <c r="H99" s="15"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C100" s="7"/>
+      <c r="C100" s="16"/>
       <c r="D100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7" t="s">
+      <c r="F100" s="16"/>
+      <c r="G100" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H100" s="7"/>
+      <c r="H100" s="16"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>2</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="7"/>
+      <c r="C101" s="16"/>
       <c r="D101" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="183">
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="A98:H98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="A92:H92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="A80:H80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="A67:H67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:H32"/>
@@ -1946,165 +2107,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="A67:H67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="A86:H86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="A80:H80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="A92:H92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="A98:H98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="G99:H99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/ProjectDatabaseSchema utkarsh.xlsx
+++ b/Documentation/ProjectDatabaseSchema utkarsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDAC\CDAC Project\Cdac-Project\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAC\Project\Cdac-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2DE69B-CB0B-4DBD-95A2-713275B15E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C82588-46FF-450C-BF2D-4D8002EF1DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BF33976-700D-4C25-9B98-68ED924E98C1}"/>
   </bookViews>
@@ -285,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -299,6 +299,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -319,20 +322,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D7EF82-BDA5-426B-BA27-27E3C64BA0E2}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -659,142 +657,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="9"/>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10"/>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
@@ -802,17 +800,17 @@
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
@@ -820,17 +818,17 @@
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
@@ -838,17 +836,17 @@
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
@@ -856,17 +854,17 @@
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
@@ -874,35 +872,35 @@
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
     </row>
@@ -910,17 +908,17 @@
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
     </row>
@@ -928,200 +926,198 @@
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="9"/>
+      <c r="B23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="10"/>
       <c r="D23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10" t="s">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="9"/>
+      <c r="B29" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="10"/>
       <c r="D29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10" t="s">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="12"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="12"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="12"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1132,793 +1128,793 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="9"/>
+      <c r="B38" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="10"/>
       <c r="D38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10" t="s">
+      <c r="F38" s="11"/>
+      <c r="G38" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="10"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7" t="s">
+      <c r="F39" s="8"/>
+      <c r="G39" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="9"/>
+      <c r="B44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="10"/>
       <c r="D44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10" t="s">
+      <c r="F44" s="11"/>
+      <c r="G44" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="10"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>1</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7" t="s">
+      <c r="F45" s="8"/>
+      <c r="G45" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="7"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="9"/>
+      <c r="B50" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="10"/>
       <c r="D50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10" t="s">
+      <c r="F50" s="11"/>
+      <c r="G50" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="10"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>1</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="7"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7" t="s">
+      <c r="F51" s="8"/>
+      <c r="G51" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="7"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="7"/>
+      <c r="C52" s="8"/>
       <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="9"/>
+      <c r="B56" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="10"/>
       <c r="D56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10" t="s">
+      <c r="F56" s="11"/>
+      <c r="G56" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="10"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>1</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="7"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7" t="s">
+      <c r="F57" s="8"/>
+      <c r="G57" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H57" s="7"/>
+      <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="7"/>
+      <c r="C58" s="8"/>
       <c r="D58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
     </row>
     <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="9"/>
+      <c r="B62" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="10"/>
       <c r="D62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10" t="s">
+      <c r="F62" s="11"/>
+      <c r="G62" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="10"/>
+      <c r="H62" s="11"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>1</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="7"/>
+      <c r="C63" s="8"/>
       <c r="D63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7" t="s">
+      <c r="F63" s="8"/>
+      <c r="G63" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H63" s="7"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="7"/>
+      <c r="C64" s="8"/>
       <c r="D64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
     </row>
     <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
     </row>
     <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68" s="9"/>
+      <c r="B68" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="10"/>
       <c r="D68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10" t="s">
+      <c r="F68" s="11"/>
+      <c r="G68" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H68" s="10"/>
+      <c r="H68" s="11"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>1</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="7"/>
+      <c r="C69" s="8"/>
       <c r="D69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7" t="s">
+      <c r="F69" s="8"/>
+      <c r="G69" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="7"/>
+      <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>2</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="7"/>
+      <c r="C70" s="8"/>
       <c r="D70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
     </row>
     <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
     </row>
     <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" s="9"/>
+      <c r="B74" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="10"/>
       <c r="D74" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10" t="s">
+      <c r="F74" s="11"/>
+      <c r="G74" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H74" s="10"/>
+      <c r="H74" s="11"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>1</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="7"/>
+      <c r="C75" s="8"/>
       <c r="D75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7" t="s">
+      <c r="F75" s="8"/>
+      <c r="G75" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H75" s="7"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="13"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>2</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="7"/>
+      <c r="C77" s="8"/>
       <c r="D77" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
     </row>
     <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
     </row>
     <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C81" s="9"/>
+      <c r="B81" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="10"/>
       <c r="D81" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10" t="s">
+      <c r="F81" s="11"/>
+      <c r="G81" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H81" s="10"/>
+      <c r="H81" s="11"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>1</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="7"/>
+      <c r="C82" s="8"/>
       <c r="D82" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7" t="s">
+      <c r="F82" s="8"/>
+      <c r="G82" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H82" s="7"/>
+      <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>2</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C83" s="7"/>
+      <c r="C83" s="8"/>
       <c r="D83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
     </row>
     <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
     </row>
     <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C87" s="9"/>
+      <c r="B87" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="10"/>
       <c r="D87" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E87" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10" t="s">
+      <c r="F87" s="11"/>
+      <c r="G87" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H87" s="10"/>
+      <c r="H87" s="11"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>1</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="7"/>
+      <c r="C88" s="8"/>
       <c r="D88" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7" t="s">
+      <c r="F88" s="8"/>
+      <c r="G88" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H88" s="7"/>
+      <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>2</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C89" s="7"/>
+      <c r="C89" s="8"/>
       <c r="D89" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
     </row>
     <row r="92" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
     </row>
     <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" s="9"/>
+      <c r="B93" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="10"/>
       <c r="D93" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E93" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10" t="s">
+      <c r="F93" s="11"/>
+      <c r="G93" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H93" s="10"/>
+      <c r="H93" s="11"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>1</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="7"/>
+      <c r="C94" s="8"/>
       <c r="D94" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7" t="s">
+      <c r="F94" s="8"/>
+      <c r="G94" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H94" s="7"/>
+      <c r="H94" s="8"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>2</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="7"/>
+      <c r="C95" s="8"/>
       <c r="D95" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
     </row>
     <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
     </row>
     <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C99" s="9"/>
+      <c r="B99" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="10"/>
       <c r="D99" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="10" t="s">
+      <c r="E99" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10" t="s">
+      <c r="F99" s="11"/>
+      <c r="G99" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H99" s="10"/>
+      <c r="H99" s="11"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C100" s="7"/>
+      <c r="C100" s="8"/>
       <c r="D100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7" t="s">
+      <c r="F100" s="8"/>
+      <c r="G100" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H100" s="7"/>
+      <c r="H100" s="8"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>2</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="7"/>
+      <c r="C101" s="8"/>
       <c r="D101" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="183">
@@ -1946,24 +1942,9 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -1976,6 +1957,21 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="E29:F29"/>
